--- a/biology/Neurosciences/Laurent_Cohen/Laurent_Cohen.xlsx
+++ b/biology/Neurosciences/Laurent_Cohen/Laurent_Cohen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laurent Cohen, né le 14 avril 1960 à Paris, est neurologue (praticien hospitalier, Hôpital de la Salpêtrière, Paris), professeur des Universités (Sorbonne-Université), et chercheur en neurosciences cognitives (Institut du Cerveau, ICM).
 </t>
@@ -511,12 +523,14 @@
           <t>Domaine et parcours</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La neuropsychologie, la mémoire et la neuroimagerie sont ses spécialités.
 Depuis 1999, il est professeur des universités – praticien hospitalier à l'université Pierre-et-Marie-Curie pour l'hôpital de la Salpêtrière et directeur de recherche à l'Institut national de la santé et de la recherche médicale.
 Il est l'auteur de livres accessibles au grand public, tels que L'homme-thermomètre ou Pourquoi les filles sont si bonnes en maths. 
-Il est aussi chroniqueur dans Allô Docteurs[1].
+Il est aussi chroniqueur dans Allô Docteurs.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'homme-thermomètre, Odile Jacob, 2004
 Pourquoi les chimpanzés ne parlent pas, Odile Jacob, 2009
